--- a/articulo 1 XAI/Graficos/scores_efficient.xlsx
+++ b/articulo 1 XAI/Graficos/scores_efficient.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miumh-my.sharepoint.com/personal/ricardo_gonzalezm_miumh_umh_es/Documents/Documentos/Cafee/articulo 1 XAI/Graficos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_02CCBDD38F79A8D366075C52F37BD2720A46F1B4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{485329E2-C91F-490C-9C0B-AD16A5A63190}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="11_02CCBDD38F79A8D366075C52F37BD2720A46F1B4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BE1FADA-8071-4AB8-A50D-B15DE49E0D0A}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30585" yWindow="0" windowWidth="21600" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>DMU</t>
   </si>
@@ -37,16 +50,25 @@
     <t>sDEA</t>
   </si>
   <si>
-    <t>id</t>
+    <t>ID</t>
   </si>
   <si>
-    <t>-</t>
+    <t>suma</t>
+  </si>
+  <si>
+    <t>recuento</t>
+  </si>
+  <si>
+    <t>media</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -84,12 +106,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -107,6 +135,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -396,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,15 +506,13 @@
       <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>1.0449999999999999</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>1.0049999999999999</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -574,15 +604,11 @@
       <c r="C9" s="2">
         <v>1</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2">
         <v>0.97499999999999998</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -594,7 +620,7 @@
       <c r="C10" s="2">
         <v>1</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <v>1.0549999999999999</v>
       </c>
       <c r="E10" s="2">
@@ -637,7 +663,7 @@
       <c r="D12" s="2">
         <v>0.98499999999999999</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>1.0049999999999999</v>
       </c>
       <c r="F12" s="2">
@@ -674,15 +700,11 @@
       <c r="C14" s="2">
         <v>1</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D14" s="2"/>
       <c r="E14" s="2">
         <v>0.94499999999999995</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -694,15 +716,13 @@
       <c r="C15" s="2">
         <v>1</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="4">
         <v>1.0349999999999999</v>
       </c>
       <c r="E15" s="2">
         <v>0.94499999999999995</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -774,15 +794,11 @@
       <c r="C19" s="2">
         <v>1</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2">
-        <v>0.79499999999999993</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -954,15 +970,13 @@
       <c r="C28" s="2">
         <v>1</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="4">
         <v>1.0349999999999999</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="3">
         <v>1.0349999999999999</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
@@ -974,10 +988,10 @@
       <c r="C29" s="2">
         <v>1</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="4">
         <v>1.0449999999999999</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="3">
         <v>1.0049999999999999</v>
       </c>
       <c r="F29" s="2">
@@ -1014,15 +1028,11 @@
       <c r="C31" s="2">
         <v>1</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="2">
+      <c r="D31" s="2"/>
+      <c r="E31" s="3">
         <v>1.0049999999999999</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -1034,15 +1044,13 @@
       <c r="C32" s="2">
         <v>1</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="4">
         <v>1.075</v>
       </c>
       <c r="E32" s="2">
         <v>0.96499999999999997</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
@@ -1054,7 +1062,7 @@
       <c r="C33" s="2">
         <v>1</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="4">
         <v>0.98499999999999999</v>
       </c>
       <c r="E33" s="2">
@@ -1074,7 +1082,7 @@
       <c r="C34" s="2">
         <v>1</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="4">
         <v>0.97499999999999998</v>
       </c>
       <c r="E34" s="2">
@@ -1094,7 +1102,7 @@
       <c r="C35" s="2">
         <v>1</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="4">
         <v>0.95499999999999996</v>
       </c>
       <c r="E35" s="2">
@@ -1114,10 +1122,10 @@
       <c r="C36" s="2">
         <v>1</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="4">
         <v>1.0249999999999999</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="3">
         <v>1.0149999999999999</v>
       </c>
       <c r="F36" s="2">
@@ -1154,7 +1162,7 @@
       <c r="C38" s="2">
         <v>1</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="4">
         <v>1.0049999999999999</v>
       </c>
       <c r="E38" s="2">
@@ -1174,9 +1182,7 @@
       <c r="C39" s="2">
         <v>1</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D39" s="4"/>
       <c r="E39" s="2">
         <v>0.90500000000000003</v>
       </c>
@@ -1194,7 +1200,7 @@
       <c r="C40" s="2">
         <v>1</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="4">
         <v>1.0149999999999999</v>
       </c>
       <c r="E40" s="2">
@@ -1222,6 +1228,69 @@
       </c>
       <c r="F41" s="2">
         <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <f>SUM(D2:D41)</f>
+        <v>34.454999999999998</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43:F43" si="0">SUM(E2:E41)</f>
+        <v>38.740000000000009</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>31.041999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <f>35</f>
+        <v>35</v>
+      </c>
+      <c r="E44" s="2">
+        <v>40</v>
+      </c>
+      <c r="F44" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45">
+        <f>D43/D44</f>
+        <v>0.98442857142857143</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ref="E45:F45" si="1">E43/E44</f>
+        <v>0.96850000000000025</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>0.97006249999999994</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <f>_xlfn.STDEV.S(D2:D41)</f>
+        <v>3.6537076828795104E-2</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ref="D47:E47" si="2">_xlfn.STDEV.S(E2:E41)</f>
+        <v>4.0922064764810966E-2</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="2"/>
+        <v>2.1871969836211123E-2</v>
       </c>
     </row>
   </sheetData>
